--- a/Documentacao/EspecificacaoClasse/Especificação de Classe- DetalhesVenda.xlsx
+++ b/Documentacao/EspecificacaoClasse/Especificação de Classe- DetalhesVenda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fivestars\Documentacao\EspecificacaoClasse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE79CD51-3196-42FB-A91B-DCA7B7FD2005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2916D17-C652-4942-803D-B7576284BD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -28,27 +28,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>ESPECIFICAÇÃO DE CLASSE</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1.Nome: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Detalhes de Vendas</t>
-    </r>
   </si>
   <si>
     <r>
@@ -159,6 +138,27 @@
         <family val="2"/>
       </rPr>
       <t>Recebe dados da classe Venda</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.Nome: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>DetalhesVendas</t>
     </r>
   </si>
 </sst>
@@ -336,9 +336,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -348,10 +345,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -368,12 +374,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -596,7 +596,7 @@
   <dimension ref="B1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I13" sqref="D1:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -612,213 +612,213 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="12"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
+      <c r="D2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12"/>
+      <c r="D3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D4" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
+      <c r="D4" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="D5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
     </row>
     <row r="7" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="D8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4">
+        <v>6</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="5">
-        <v>6</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>999999</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="E9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="4">
         <v>6</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="5">
+      <c r="H9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="4">
         <v>999999</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="D10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="4">
+        <v>6</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="5">
-        <v>6</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <v>999999</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="5" t="s">
+      <c r="D11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="4">
+        <v>6</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="5">
-        <v>6</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <v>999999</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="D12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="4">
         <v>10.199999999999999</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="18">
+      <c r="H12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="7">
         <v>9999.99</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D13" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="8">
+      <c r="D13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="11">
         <v>10.199999999999999</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>13</v>
+      <c r="H13" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="I13" s="19">
         <v>9999.99</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
